--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Serping1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Serping1-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.82164133333333</v>
+        <v>21.137664</v>
       </c>
       <c r="H2">
-        <v>89.464924</v>
+        <v>63.412992</v>
       </c>
       <c r="I2">
-        <v>0.02335016309719764</v>
+        <v>0.01636081711441431</v>
       </c>
       <c r="J2">
-        <v>0.02335016309719764</v>
+        <v>0.01636081711441431</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N2">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q2">
-        <v>242.4867439454053</v>
+        <v>80.22150035737602</v>
       </c>
       <c r="R2">
-        <v>2182.380695508647</v>
+        <v>721.9935032163842</v>
       </c>
       <c r="S2">
-        <v>0.0004882508766543769</v>
+        <v>0.0001708419028557091</v>
       </c>
       <c r="T2">
-        <v>0.000488250876654377</v>
+        <v>0.0001708419028557091</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.82164133333333</v>
+        <v>21.137664</v>
       </c>
       <c r="H3">
-        <v>89.464924</v>
+        <v>63.412992</v>
       </c>
       <c r="I3">
-        <v>0.02335016309719764</v>
+        <v>0.01636081711441431</v>
       </c>
       <c r="J3">
-        <v>0.02335016309719764</v>
+        <v>0.01636081711441431</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q3">
-        <v>7257.883670035678</v>
+        <v>5144.408540546048</v>
       </c>
       <c r="R3">
-        <v>65320.9530303211</v>
+        <v>46299.67686491444</v>
       </c>
       <c r="S3">
-        <v>0.01461386303800692</v>
+        <v>0.01095567323247201</v>
       </c>
       <c r="T3">
-        <v>0.01461386303800692</v>
+        <v>0.01095567323247201</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.82164133333333</v>
+        <v>21.137664</v>
       </c>
       <c r="H4">
-        <v>89.464924</v>
+        <v>63.412992</v>
       </c>
       <c r="I4">
-        <v>0.02335016309719764</v>
+        <v>0.01636081711441431</v>
       </c>
       <c r="J4">
-        <v>0.02335016309719764</v>
+        <v>0.01636081711441431</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N4">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q4">
-        <v>996.601956427239</v>
+        <v>629.931366937344</v>
       </c>
       <c r="R4">
-        <v>8969.417607845151</v>
+        <v>5669.382302436096</v>
       </c>
       <c r="S4">
-        <v>0.002006673729804465</v>
+        <v>0.001341519080503942</v>
       </c>
       <c r="T4">
-        <v>0.002006673729804465</v>
+        <v>0.001341519080503942</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.82164133333333</v>
+        <v>21.137664</v>
       </c>
       <c r="H5">
-        <v>89.464924</v>
+        <v>63.412992</v>
       </c>
       <c r="I5">
-        <v>0.02335016309719764</v>
+        <v>0.01636081711441431</v>
       </c>
       <c r="J5">
-        <v>0.02335016309719764</v>
+        <v>0.01636081711441431</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N5">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q5">
-        <v>3099.74007961705</v>
+        <v>1827.917387185664</v>
       </c>
       <c r="R5">
-        <v>27897.66071655346</v>
+        <v>16451.25648467098</v>
       </c>
       <c r="S5">
-        <v>0.006241375452731878</v>
+        <v>0.003892782898582645</v>
       </c>
       <c r="T5">
-        <v>0.006241375452731879</v>
+        <v>0.003892782898582645</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3480.380189</v>
       </c>
       <c r="I6">
-        <v>0.9083721465342726</v>
+        <v>0.8979526429041496</v>
       </c>
       <c r="J6">
-        <v>0.9083721465342726</v>
+        <v>0.8979526429041496</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N6">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q6">
-        <v>9433.261908574408</v>
+        <v>4402.904070126006</v>
       </c>
       <c r="R6">
-        <v>84899.35717716967</v>
+        <v>39626.13663113405</v>
       </c>
       <c r="S6">
-        <v>0.01899402137054044</v>
+        <v>0.00937654501699072</v>
       </c>
       <c r="T6">
-        <v>0.01899402137054044</v>
+        <v>0.00937654501699072</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3480.380189</v>
       </c>
       <c r="I7">
-        <v>0.9083721465342726</v>
+        <v>0.8979526429041496</v>
       </c>
       <c r="J7">
-        <v>0.9083721465342726</v>
+        <v>0.8979526429041496</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,13 +868,13 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q7">
         <v>282347.4654632109</v>
@@ -883,10 +883,10 @@
         <v>2541127.189168898</v>
       </c>
       <c r="S7">
-        <v>0.5685110669991588</v>
+        <v>0.6012948904138314</v>
       </c>
       <c r="T7">
-        <v>0.5685110669991588</v>
+        <v>0.6012948904138314</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3480.380189</v>
       </c>
       <c r="I8">
-        <v>0.9083721465342726</v>
+        <v>0.8979526429041496</v>
       </c>
       <c r="J8">
-        <v>0.9083721465342726</v>
+        <v>0.8979526429041496</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N8">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q8">
-        <v>38769.9843736301</v>
+        <v>34573.36707781303</v>
       </c>
       <c r="R8">
-        <v>348929.8593626709</v>
+        <v>311160.3037003173</v>
       </c>
       <c r="S8">
-        <v>0.07806397393237823</v>
+        <v>0.07362838881583472</v>
       </c>
       <c r="T8">
-        <v>0.07806397393237823</v>
+        <v>0.07362838881583471</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3480.380189</v>
       </c>
       <c r="I9">
-        <v>0.9083721465342726</v>
+        <v>0.8979526429041496</v>
       </c>
       <c r="J9">
-        <v>0.9083721465342726</v>
+        <v>0.8979526429041496</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N9">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q9">
-        <v>120586.6330825751</v>
+        <v>100324.0386684424</v>
       </c>
       <c r="R9">
-        <v>1085279.697743176</v>
+        <v>902916.3480159814</v>
       </c>
       <c r="S9">
-        <v>0.2428030842321952</v>
+        <v>0.2136528186574926</v>
       </c>
       <c r="T9">
-        <v>0.2428030842321952</v>
+        <v>0.2136528186574926</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>86.94000199999999</v>
+        <v>109.7535913333333</v>
       </c>
       <c r="H10">
-        <v>260.820006</v>
+        <v>329.260774</v>
       </c>
       <c r="I10">
-        <v>0.06807349078072281</v>
+        <v>0.08495065658413503</v>
       </c>
       <c r="J10">
-        <v>0.06807349078072282</v>
+        <v>0.08495065658413503</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N10">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q10">
-        <v>706.9295002224678</v>
+        <v>416.5359883840666</v>
       </c>
       <c r="R10">
-        <v>6362.365502002211</v>
+        <v>3748.823895456599</v>
       </c>
       <c r="S10">
-        <v>0.001423413678622248</v>
+        <v>0.0008870664416197803</v>
       </c>
       <c r="T10">
-        <v>0.001423413678622248</v>
+        <v>0.0008870664416197803</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>86.94000199999999</v>
+        <v>109.7535913333333</v>
       </c>
       <c r="H11">
-        <v>260.820006</v>
+        <v>329.260774</v>
       </c>
       <c r="I11">
-        <v>0.06807349078072281</v>
+        <v>0.08495065658413503</v>
       </c>
       <c r="J11">
-        <v>0.06807349078072282</v>
+        <v>0.08495065658413503</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q11">
-        <v>21159.14458683279</v>
+        <v>26711.43379943975</v>
       </c>
       <c r="R11">
-        <v>190432.3012814952</v>
+        <v>240402.9041949578</v>
       </c>
       <c r="S11">
-        <v>0.04260427075594612</v>
+        <v>0.05688540052194378</v>
       </c>
       <c r="T11">
-        <v>0.04260427075594614</v>
+        <v>0.05688540052194378</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>86.94000199999999</v>
+        <v>109.7535913333333</v>
       </c>
       <c r="H12">
-        <v>260.820006</v>
+        <v>329.260774</v>
       </c>
       <c r="I12">
-        <v>0.06807349078072281</v>
+        <v>0.08495065658413503</v>
       </c>
       <c r="J12">
-        <v>0.06807349078072282</v>
+        <v>0.08495065658413503</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N12">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q12">
-        <v>2905.426133877498</v>
+        <v>3270.807493907052</v>
       </c>
       <c r="R12">
-        <v>26148.83520489748</v>
+        <v>29437.26744516346</v>
       </c>
       <c r="S12">
-        <v>0.005850121263699311</v>
+        <v>0.006965601162337466</v>
       </c>
       <c r="T12">
-        <v>0.005850121263699312</v>
+        <v>0.006965601162337466</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>86.94000199999999</v>
+        <v>109.7535913333333</v>
       </c>
       <c r="H13">
-        <v>260.820006</v>
+        <v>329.260774</v>
       </c>
       <c r="I13">
-        <v>0.06807349078072281</v>
+        <v>0.08495065658413503</v>
       </c>
       <c r="J13">
-        <v>0.06807349078072282</v>
+        <v>0.08495065658413503</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N13">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q13">
-        <v>9036.773184585274</v>
+        <v>9491.138562154732</v>
       </c>
       <c r="R13">
-        <v>81330.95866126748</v>
+        <v>85420.24705939258</v>
       </c>
       <c r="S13">
-        <v>0.01819568508245512</v>
+        <v>0.020212588458234</v>
       </c>
       <c r="T13">
-        <v>0.01819568508245513</v>
+        <v>0.020212588458234</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2607933333333334</v>
+        <v>0.9507383333333334</v>
       </c>
       <c r="H14">
-        <v>0.7823800000000001</v>
+        <v>2.852215</v>
       </c>
       <c r="I14">
-        <v>0.0002041995878070102</v>
+        <v>0.0007358833973011272</v>
       </c>
       <c r="J14">
-        <v>0.0002041995878070102</v>
+        <v>0.0007358833973011273</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N14">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q14">
-        <v>2.120571618973333</v>
+        <v>3.608234833672778</v>
       </c>
       <c r="R14">
-        <v>19.08514457076</v>
+        <v>32.47411350305501</v>
       </c>
       <c r="S14">
-        <v>4.269804341161141E-06</v>
+        <v>7.684195660624187E-06</v>
       </c>
       <c r="T14">
-        <v>4.269804341161141E-06</v>
+        <v>7.684195660624189E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2607933333333334</v>
+        <v>0.9507383333333334</v>
       </c>
       <c r="H15">
-        <v>0.7823800000000001</v>
+        <v>2.852215</v>
       </c>
       <c r="I15">
-        <v>0.0002041995878070102</v>
+        <v>0.0007358833973011272</v>
       </c>
       <c r="J15">
-        <v>0.0002041995878070102</v>
+        <v>0.0007358833973011273</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q15">
-        <v>63.47094226294223</v>
+        <v>231.3872716410156</v>
       </c>
       <c r="R15">
-        <v>571.2384803664801</v>
+        <v>2082.48544476914</v>
       </c>
       <c r="S15">
-        <v>0.0001277997415353067</v>
+        <v>0.0004927686668491396</v>
       </c>
       <c r="T15">
-        <v>0.0001277997415353067</v>
+        <v>0.0004927686668491397</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2607933333333334</v>
+        <v>0.9507383333333334</v>
       </c>
       <c r="H16">
-        <v>0.7823800000000001</v>
+        <v>2.852215</v>
       </c>
       <c r="I16">
-        <v>0.0002041995878070102</v>
+        <v>0.0007358833973011272</v>
       </c>
       <c r="J16">
-        <v>0.0002041995878070102</v>
+        <v>0.0007358833973011273</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N16">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q16">
-        <v>8.715387034471112</v>
+        <v>28.33330579558833</v>
       </c>
       <c r="R16">
-        <v>78.43848331024</v>
+        <v>254.999752160295</v>
       </c>
       <c r="S16">
-        <v>1.754856900928477E-05</v>
+        <v>6.033938351622886E-05</v>
       </c>
       <c r="T16">
-        <v>1.754856900928477E-05</v>
+        <v>6.033938351622885E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2607933333333334</v>
+        <v>0.9507383333333334</v>
       </c>
       <c r="H17">
-        <v>0.7823800000000001</v>
+        <v>2.852215</v>
       </c>
       <c r="I17">
-        <v>0.0002041995878070102</v>
+        <v>0.0007358833973011272</v>
       </c>
       <c r="J17">
-        <v>0.0002041995878070102</v>
+        <v>0.0007358833973011273</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N17">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q17">
-        <v>27.10754712641111</v>
+        <v>82.21680173191889</v>
       </c>
       <c r="R17">
-        <v>243.9679241377</v>
+        <v>739.9512155872701</v>
       </c>
       <c r="S17">
-        <v>5.458147292125759E-05</v>
+        <v>0.0001750911512751345</v>
       </c>
       <c r="T17">
-        <v>5.458147292125759E-05</v>
+        <v>0.0001750911512751346</v>
       </c>
     </row>
   </sheetData>
